--- a/biology/Zoologie/Amphigymnas/Amphigymnas.xlsx
+++ b/biology/Zoologie/Amphigymnas/Amphigymnas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphigymnas est un genre de concombres de mer abyssaux de la famille des Synallactidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Amphigymnas a été créé en 1891 par J. H. Tull Walsh (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Amphigymnas a été créé en 1891 par J. H. Tull Walsh (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1 juin 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1 juin 2021) :
 Amphigymnas bahamensis Deichmann, 1930
 Amphigymnas staplesi O'Loughlin in O'Loughlin et al., 2013
 Amphigymnas woodmasoni (Walsh, 1891)</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) J. H. Tull Walsh, « List of deep-sea holothurians collected during seasons 1887 to 1891, with description of new species », Journal of the Asiatic Society of Bengal, Calcutta, Inconnu, vol. 60, nos 2-4,‎ 7 mai 1891, p. 197–204 (ISSN 0368-1068, OCLC 1824093, lire en ligne)</t>
         </is>
